--- a/Code/Results/Cases/Case_1_66/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_66/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.267387730577492</v>
+        <v>7.778358071332719</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.877909849137784</v>
+        <v>3.274679922277584</v>
       </c>
       <c r="E2">
-        <v>44.41537718482365</v>
+        <v>24.61621265281816</v>
       </c>
       <c r="F2">
-        <v>18.8926069647226</v>
+        <v>16.98616095398754</v>
       </c>
       <c r="G2">
-        <v>1.9826107787267</v>
+        <v>3.567782193506756</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>71.95212270360521</v>
+        <v>41.81992765739399</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.25219298900421</v>
+        <v>14.83333191811389</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.901844861707794</v>
+        <v>7.70548892209343</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.62442762724011</v>
+        <v>3.187549142892391</v>
       </c>
       <c r="E3">
-        <v>40.86930759433231</v>
+        <v>23.25989930604221</v>
       </c>
       <c r="F3">
-        <v>17.12392527076924</v>
+        <v>17.01074258240347</v>
       </c>
       <c r="G3">
-        <v>1.994405518096777</v>
+        <v>3.571214819775512</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>66.57683604831814</v>
+        <v>39.30861327673671</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.80911659814347</v>
+        <v>14.96678832354679</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.672466529144729</v>
+        <v>7.662239339491035</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.465223110062764</v>
+        <v>3.132281646194434</v>
       </c>
       <c r="E4">
-        <v>38.64829736079827</v>
+        <v>22.39362088992859</v>
       </c>
       <c r="F4">
-        <v>16.03922527839672</v>
+        <v>17.04123063946369</v>
       </c>
       <c r="G4">
-        <v>2.001620081836976</v>
+        <v>3.573417636947942</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>63.16919720093818</v>
+        <v>37.67728630445013</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.92430598355296</v>
+        <v>15.06074526215347</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.577828637372131</v>
+        <v>7.645008957279188</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.39929463353786</v>
+        <v>3.109332478577533</v>
       </c>
       <c r="E5">
-        <v>37.72930104786639</v>
+        <v>22.03261736265197</v>
       </c>
       <c r="F5">
-        <v>15.59665766488992</v>
+        <v>17.05744966350543</v>
       </c>
       <c r="G5">
-        <v>2.00456323684539</v>
+        <v>3.574339359313176</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>61.7504234475531</v>
+        <v>36.99015830309371</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.56313459635347</v>
+        <v>15.10198085689085</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.562046548852035</v>
+        <v>7.642172211232761</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.388280002318504</v>
+        <v>3.105496528683843</v>
       </c>
       <c r="E6">
-        <v>37.57578812197</v>
+        <v>21.97220495427291</v>
       </c>
       <c r="F6">
-        <v>15.52311793834537</v>
+        <v>17.06036966057875</v>
       </c>
       <c r="G6">
-        <v>2.005052393999998</v>
+        <v>3.574493867185133</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>61.51293581013233</v>
+        <v>36.8747159739326</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.50310423996154</v>
+        <v>15.10900386009095</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.671194802035531</v>
+        <v>7.662005344066526</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.464338407397517</v>
+        <v>3.131973851094981</v>
       </c>
       <c r="E7">
-        <v>38.63596321249953</v>
+        <v>22.38878397556407</v>
       </c>
       <c r="F7">
-        <v>16.0332597551181</v>
+        <v>17.04143411523772</v>
       </c>
       <c r="G7">
-        <v>2.001659749576822</v>
+        <v>3.573429970048394</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>63.15018888282525</v>
+        <v>37.66810974789654</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.91943855844572</v>
+        <v>15.06128954313208</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.142408948977813</v>
+        <v>7.752934595544235</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.791141938281929</v>
+        <v>3.245014406932632</v>
       </c>
       <c r="E8">
-        <v>43.19978270186813</v>
+        <v>24.15574339177918</v>
       </c>
       <c r="F8">
-        <v>18.28186682480419</v>
+        <v>16.99139784393044</v>
       </c>
       <c r="G8">
-        <v>1.98669004851234</v>
+        <v>3.568946086559295</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>70.11884050090617</v>
+        <v>40.97263504328001</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.75371811098318</v>
+        <v>14.87680981221339</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.025669816521946</v>
+        <v>7.942226813206298</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.413700122164467</v>
+        <v>3.451961005869444</v>
       </c>
       <c r="E9">
-        <v>51.98281060082442</v>
+        <v>27.47505586749453</v>
       </c>
       <c r="F9">
-        <v>22.76347090147625</v>
+        <v>17.0184414535519</v>
       </c>
       <c r="G9">
-        <v>1.956513640512653</v>
+        <v>3.560902491409383</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>83.12460019844275</v>
+        <v>46.74047786953941</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.42101318227336</v>
+        <v>14.61365799427336</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.728490559441243</v>
+        <v>8.086806787318137</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.88163851708442</v>
+        <v>3.594214406359426</v>
       </c>
       <c r="E10">
-        <v>58.71597780417801</v>
+        <v>29.92356489215911</v>
       </c>
       <c r="F10">
-        <v>26.24012557175212</v>
+        <v>17.11810104542919</v>
       </c>
       <c r="G10">
-        <v>1.932607660231142</v>
+        <v>3.555441239110157</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>92.67105603942517</v>
+        <v>50.54204109767078</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.28889314326265</v>
+        <v>14.48488722411444</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.066108505104618</v>
+        <v>8.153517255638389</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.105850712786451</v>
+        <v>3.656661203950581</v>
       </c>
       <c r="E11">
-        <v>61.99745535804057</v>
+        <v>30.97669438597977</v>
       </c>
       <c r="F11">
-        <v>27.92026782868275</v>
+        <v>17.18131239775872</v>
       </c>
       <c r="G11">
-        <v>1.920866880163489</v>
+        <v>3.55305227136055</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>97.16967607021463</v>
+        <v>52.17692866468987</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.6845981167095</v>
+        <v>14.44125735241736</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.19276574186202</v>
+        <v>8.178892179464901</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.193790676347048</v>
+        <v>3.679972395777082</v>
       </c>
       <c r="E12">
-        <v>63.29599612561194</v>
+        <v>31.36680688401657</v>
       </c>
       <c r="F12">
-        <v>28.5796278698661</v>
+        <v>17.20784972027014</v>
       </c>
       <c r="G12">
-        <v>1.916222899602558</v>
+        <v>3.552161198309221</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>98.91963780443349</v>
+        <v>52.78246701895058</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.2343233022557</v>
+        <v>14.4269595450458</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.165531657504909</v>
+        <v>8.173422555426043</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.174683242025499</v>
+        <v>3.674967010700367</v>
       </c>
       <c r="E13">
-        <v>63.013268711974</v>
+        <v>31.28317464563257</v>
       </c>
       <c r="F13">
-        <v>28.43638655131988</v>
+        <v>17.20201840521342</v>
       </c>
       <c r="G13">
-        <v>1.917233571051295</v>
+        <v>3.552352505227574</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>98.5401273086681</v>
+        <v>52.65265593717303</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.11479923567547</v>
+        <v>14.42993876942307</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.076549350885641</v>
+        <v>8.155602725072333</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.113013292977484</v>
+        <v>3.658585819435196</v>
       </c>
       <c r="E14">
-        <v>62.10296624587794</v>
+        <v>31.00896294941251</v>
       </c>
       <c r="F14">
-        <v>27.973978036312</v>
+        <v>17.18344338526124</v>
       </c>
       <c r="G14">
-        <v>1.920489376895039</v>
+        <v>3.552978690943989</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>97.31252133762656</v>
+        <v>52.22701819505923</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.72933406331314</v>
+        <v>14.44003607658352</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.021906062071151</v>
+        <v>8.144701641432119</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.075691409250969</v>
+        <v>3.648507817512785</v>
       </c>
       <c r="E15">
-        <v>61.55366476331947</v>
+        <v>30.8398708081209</v>
       </c>
       <c r="F15">
-        <v>27.69411372471091</v>
+        <v>17.17240503208285</v>
       </c>
       <c r="G15">
-        <v>1.922454897837686</v>
+        <v>3.553364011754981</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>96.56759978452791</v>
+        <v>51.96453813590502</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.49631455799708</v>
+        <v>14.44651274687891</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.706232663964638</v>
+        <v>8.082464132006413</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.867315180350154</v>
+        <v>3.590086868979272</v>
       </c>
       <c r="E16">
-        <v>58.5076854315114</v>
+        <v>29.85352247557864</v>
       </c>
       <c r="F16">
-        <v>26.1329567167963</v>
+        <v>17.11433254623553</v>
       </c>
       <c r="G16">
-        <v>1.933352188387512</v>
+        <v>3.555599271327337</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>92.38193473891317</v>
+        <v>50.43329835577831</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.20010110532929</v>
+        <v>14.48804574640871</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.509956268425455</v>
+        <v>8.044508529547851</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.743147544590409</v>
+        <v>3.553659606428386</v>
       </c>
       <c r="E17">
-        <v>56.70825742741658</v>
+        <v>29.23291045253422</v>
       </c>
       <c r="F17">
-        <v>25.20536919933559</v>
+        <v>17.0833100325424</v>
       </c>
       <c r="G17">
-        <v>1.939775335601182</v>
+        <v>3.556994862786001</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>89.86715630581409</v>
+        <v>49.4697514424146</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.43267115229753</v>
+        <v>14.51740716551807</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.395982549780076</v>
+        <v>8.022767299465093</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.67268230666962</v>
+        <v>3.532494949848328</v>
       </c>
       <c r="E18">
-        <v>55.69183458437671</v>
+        <v>28.87023336590379</v>
       </c>
       <c r="F18">
-        <v>24.68039524480586</v>
+        <v>17.06714810704606</v>
       </c>
       <c r="G18">
-        <v>1.943394233393888</v>
+        <v>3.557806556494204</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>88.43343742573623</v>
+        <v>48.90665086532238</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.99917971606171</v>
+        <v>14.53569779357206</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.357198044050037</v>
+        <v>8.015422195133965</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.648957338462129</v>
+        <v>3.525292773571887</v>
       </c>
       <c r="E19">
-        <v>55.35035216011565</v>
+        <v>28.74645389438333</v>
       </c>
       <c r="F19">
-        <v>24.50392130429</v>
+        <v>17.06196365307111</v>
       </c>
       <c r="G19">
-        <v>1.944608169576278</v>
+        <v>3.558082929638948</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>87.94966634005482</v>
+        <v>48.71446662820038</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.85358911247513</v>
+        <v>14.54212930236887</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.530959759484757</v>
+        <v>8.048539831653814</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.756259230116084</v>
+        <v>3.557559439213458</v>
       </c>
       <c r="E20">
-        <v>56.89775689517585</v>
+        <v>29.29956709208617</v>
       </c>
       <c r="F20">
-        <v>25.30317885537209</v>
+        <v>17.08643816242983</v>
       </c>
       <c r="G20">
-        <v>1.939099799208631</v>
+        <v>3.556845370629845</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>90.13341237255516</v>
+        <v>49.57324300130869</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.5135021201647</v>
+        <v>14.51413587097255</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.102713493060383</v>
+        <v>8.160833946848149</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.131028920389983</v>
+        <v>3.663406568903989</v>
       </c>
       <c r="E21">
-        <v>62.36854791879867</v>
+        <v>31.08974088106011</v>
       </c>
       <c r="F21">
-        <v>28.10907040715436</v>
+        <v>17.18882855274881</v>
       </c>
       <c r="G21">
-        <v>1.919539264951018</v>
+        <v>3.552794397659415</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>97.67156797461469</v>
+        <v>52.35240600377331</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.84188813717743</v>
+        <v>14.43700931728903</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.469853451399304</v>
+        <v>8.234873823886492</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.395200775413779</v>
+        <v>3.730621100634569</v>
       </c>
       <c r="E22">
-        <v>66.29701840285828</v>
+        <v>32.20912678483639</v>
       </c>
       <c r="F22">
-        <v>30.0872943475676</v>
+        <v>17.27091117489746</v>
       </c>
       <c r="G22">
-        <v>1.905522661282571</v>
+        <v>3.550225924329538</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>102.8948735222635</v>
+        <v>54.08974446931409</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.49589655992114</v>
+        <v>14.3995977356637</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.274291713804086</v>
+        <v>8.19530521654373</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.251680553308663</v>
+        <v>3.694930113454535</v>
       </c>
       <c r="E23">
-        <v>64.15460837772866</v>
+        <v>31.61630241533156</v>
       </c>
       <c r="F23">
-        <v>29.01345584782414</v>
+        <v>17.22570734515022</v>
       </c>
       <c r="G23">
-        <v>1.913155737274883</v>
+        <v>3.551589578462113</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>100.0669643860014</v>
+        <v>53.16971109658362</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.59666746307227</v>
+        <v>14.41835206512246</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.521467633660357</v>
+        <v>8.046717029264325</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.750328660927882</v>
+        <v>3.555797015921911</v>
       </c>
       <c r="E24">
-        <v>56.8120294110179</v>
+        <v>29.26944994036599</v>
       </c>
       <c r="F24">
-        <v>25.25893381229483</v>
+        <v>17.0850187252606</v>
       </c>
       <c r="G24">
-        <v>1.939405434471877</v>
+        <v>3.55691292690109</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>90.01300199448693</v>
+        <v>49.52648295276219</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.47693493806123</v>
+        <v>14.51561043595065</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.791172330711523</v>
+        <v>7.889963869738946</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.245517005411244</v>
+        <v>3.397642713030805</v>
       </c>
       <c r="E25">
-        <v>49.59397329866428</v>
+        <v>26.51927964489767</v>
       </c>
       <c r="F25">
-        <v>21.5323604743902</v>
+        <v>16.99733063575851</v>
       </c>
       <c r="G25">
-        <v>1.964866125222259</v>
+        <v>3.562999140272399</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>79.64479383014034</v>
+        <v>45.25667924382275</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.41093727534029</v>
+        <v>14.67382806441247</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_66/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_66/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.778358071332719</v>
+        <v>7.267387730577441</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.274679922277584</v>
+        <v>3.877909849137758</v>
       </c>
       <c r="E2">
-        <v>24.61621265281816</v>
+        <v>44.4153771848234</v>
       </c>
       <c r="F2">
-        <v>16.98616095398754</v>
+        <v>18.89260696472267</v>
       </c>
       <c r="G2">
-        <v>3.567782193506756</v>
+        <v>1.982610778726697</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>41.81992765739399</v>
+        <v>71.95212270360504</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.83333191811389</v>
+        <v>14.2521929890043</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.70548892209343</v>
+        <v>6.901844861707719</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.187549142892391</v>
+        <v>3.62442762724006</v>
       </c>
       <c r="E3">
-        <v>23.25989930604221</v>
+        <v>40.86930759433244</v>
       </c>
       <c r="F3">
-        <v>17.01074258240347</v>
+        <v>17.12392527076918</v>
       </c>
       <c r="G3">
-        <v>3.571214819775512</v>
+        <v>1.994405518097046</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>39.30861327673671</v>
+        <v>66.57683604831828</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.96678832354679</v>
+        <v>12.80911659814341</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.662239339491035</v>
+        <v>6.672466529144823</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.132281646194434</v>
+        <v>3.465223110062744</v>
       </c>
       <c r="E4">
-        <v>22.39362088992859</v>
+        <v>38.64829736079773</v>
       </c>
       <c r="F4">
-        <v>17.04123063946369</v>
+        <v>16.03922527839684</v>
       </c>
       <c r="G4">
-        <v>3.573417636947942</v>
+        <v>2.001620081836708</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>37.67728630445013</v>
+        <v>63.1691972009376</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.06074526215347</v>
+        <v>11.92430598355308</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.645008957279188</v>
+        <v>6.577828637372149</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.109332478577533</v>
+        <v>3.399294633537817</v>
       </c>
       <c r="E5">
-        <v>22.03261736265197</v>
+        <v>37.72930104786638</v>
       </c>
       <c r="F5">
-        <v>17.05744966350543</v>
+        <v>15.59665766488988</v>
       </c>
       <c r="G5">
-        <v>3.574339359313176</v>
+        <v>2.004563236845526</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>36.99015830309371</v>
+        <v>61.7504234475531</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.10198085689085</v>
+        <v>11.56313459635343</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.642172211232761</v>
+        <v>6.562046548852055</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.105496528683843</v>
+        <v>3.388280002318416</v>
       </c>
       <c r="E6">
-        <v>21.97220495427291</v>
+        <v>37.57578812197006</v>
       </c>
       <c r="F6">
-        <v>17.06036966057875</v>
+        <v>15.52311793834533</v>
       </c>
       <c r="G6">
-        <v>3.574493867185133</v>
+        <v>2.005052393999998</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>36.8747159739326</v>
+        <v>61.51293581013238</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.10900386009095</v>
+        <v>11.50310423996149</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.662005344066526</v>
+        <v>6.671194802035404</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.131973851094981</v>
+        <v>3.464338407397486</v>
       </c>
       <c r="E7">
-        <v>22.38878397556407</v>
+        <v>38.63596321249914</v>
       </c>
       <c r="F7">
-        <v>17.04143411523772</v>
+        <v>16.03325975511817</v>
       </c>
       <c r="G7">
-        <v>3.573429970048394</v>
+        <v>2.001659749576689</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>37.66810974789654</v>
+        <v>63.15018888282483</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.06128954313208</v>
+        <v>11.91943855844573</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.752934595544235</v>
+        <v>7.142408948977802</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.245014406932632</v>
+        <v>3.791141938282023</v>
       </c>
       <c r="E8">
-        <v>24.15574339177918</v>
+        <v>43.19978270186791</v>
       </c>
       <c r="F8">
-        <v>16.99139784393044</v>
+        <v>18.28186682480416</v>
       </c>
       <c r="G8">
-        <v>3.568946086559295</v>
+        <v>1.986690048511937</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>40.97263504328001</v>
+        <v>70.118840500906</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.87680981221339</v>
+        <v>13.75371811098319</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.942226813206298</v>
+        <v>8.025669816521939</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.451961005869444</v>
+        <v>4.413700122164461</v>
       </c>
       <c r="E9">
-        <v>27.47505586749453</v>
+        <v>51.98281060082441</v>
       </c>
       <c r="F9">
-        <v>17.0184414535519</v>
+        <v>22.76347090147618</v>
       </c>
       <c r="G9">
-        <v>3.560902491409383</v>
+        <v>1.956513640512787</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>46.74047786953941</v>
+        <v>83.12460019844269</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.61365799427336</v>
+        <v>17.42101318227328</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.086806787318137</v>
+        <v>8.728490559441243</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.594214406359426</v>
+        <v>4.881638517084409</v>
       </c>
       <c r="E10">
-        <v>29.92356489215911</v>
+        <v>58.71597780417756</v>
       </c>
       <c r="F10">
-        <v>17.11810104542919</v>
+        <v>26.24012557175219</v>
       </c>
       <c r="G10">
-        <v>3.555441239110157</v>
+        <v>1.932607660231141</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>50.54204109767078</v>
+        <v>92.67105603942478</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.48488722411444</v>
+        <v>20.28889314326271</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.153517255638389</v>
+        <v>9.066108505104676</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.656661203950581</v>
+        <v>5.105850712786472</v>
       </c>
       <c r="E11">
-        <v>30.97669438597977</v>
+        <v>61.99745535804004</v>
       </c>
       <c r="F11">
-        <v>17.18131239775872</v>
+        <v>27.92026782868269</v>
       </c>
       <c r="G11">
-        <v>3.55305227136055</v>
+        <v>1.920866880163489</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>52.17692866468987</v>
+        <v>97.16967607021421</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.44125735241736</v>
+        <v>21.68459811670946</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.178892179464901</v>
+        <v>9.192765741862015</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.679972395777082</v>
+        <v>5.193790676346914</v>
       </c>
       <c r="E12">
-        <v>31.36680688401657</v>
+        <v>63.29599612561194</v>
       </c>
       <c r="F12">
-        <v>17.20784972027014</v>
+        <v>28.57962786986615</v>
       </c>
       <c r="G12">
-        <v>3.552161198309221</v>
+        <v>1.916222899602426</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>52.78246701895058</v>
+        <v>98.91963780443346</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.4269595450458</v>
+        <v>22.23432330225573</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.173422555426043</v>
+        <v>9.165531657504834</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.674967010700367</v>
+        <v>5.1746832420254</v>
       </c>
       <c r="E13">
-        <v>31.28317464563257</v>
+        <v>63.01326871197394</v>
       </c>
       <c r="F13">
-        <v>17.20201840521342</v>
+        <v>28.43638655131991</v>
       </c>
       <c r="G13">
-        <v>3.552352505227574</v>
+        <v>1.917233571051161</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>52.65265593717303</v>
+        <v>98.54012730866808</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.42993876942307</v>
+        <v>22.11479923567549</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.155602725072333</v>
+        <v>9.076549350885701</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.658585819435196</v>
+        <v>5.113013292977444</v>
       </c>
       <c r="E14">
-        <v>31.00896294941251</v>
+        <v>62.10296624587801</v>
       </c>
       <c r="F14">
-        <v>17.18344338526124</v>
+        <v>27.97397803631218</v>
       </c>
       <c r="G14">
-        <v>3.552978690943989</v>
+        <v>1.920489376895174</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>52.22701819505923</v>
+        <v>97.31252133762668</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.44003607658352</v>
+        <v>21.72933406331328</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.144701641432119</v>
+        <v>9.021906062071066</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.648507817512785</v>
+        <v>5.075691409250935</v>
       </c>
       <c r="E15">
-        <v>30.8398708081209</v>
+        <v>61.55366476331928</v>
       </c>
       <c r="F15">
-        <v>17.17240503208285</v>
+        <v>27.69411372471097</v>
       </c>
       <c r="G15">
-        <v>3.553364011754981</v>
+        <v>1.922454897837821</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>51.96453813590502</v>
+        <v>96.56759978452766</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.44651274687891</v>
+        <v>21.4963145579971</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.082464132006413</v>
+        <v>8.706232663964597</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.590086868979272</v>
+        <v>4.86731518035007</v>
       </c>
       <c r="E16">
-        <v>29.85352247557864</v>
+        <v>58.50768543151109</v>
       </c>
       <c r="F16">
-        <v>17.11433254623553</v>
+        <v>26.13295671679635</v>
       </c>
       <c r="G16">
-        <v>3.555599271327337</v>
+        <v>1.933352188387512</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>50.43329835577831</v>
+        <v>92.38193473891297</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.48804574640871</v>
+        <v>20.2001011053293</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.044508529547851</v>
+        <v>8.509956268425407</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.553659606428386</v>
+        <v>4.743147544590505</v>
       </c>
       <c r="E17">
-        <v>29.23291045253422</v>
+        <v>56.70825742741725</v>
       </c>
       <c r="F17">
-        <v>17.0833100325424</v>
+        <v>25.20536919933569</v>
       </c>
       <c r="G17">
-        <v>3.556994862786001</v>
+        <v>1.939775335600912</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>49.4697514424146</v>
+        <v>89.86715630581467</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.51740716551807</v>
+        <v>19.43267115229764</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.022767299465093</v>
+        <v>8.39598254978003</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.532494949848328</v>
+        <v>4.672682306669628</v>
       </c>
       <c r="E18">
-        <v>28.87023336590379</v>
+        <v>55.6918345843769</v>
       </c>
       <c r="F18">
-        <v>17.06714810704606</v>
+        <v>24.6803952448059</v>
       </c>
       <c r="G18">
-        <v>3.557806556494204</v>
+        <v>1.943394233393888</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>48.90665086532238</v>
+        <v>88.43343742573644</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.53569779357206</v>
+        <v>18.99917971606172</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.015422195133965</v>
+        <v>8.357198044050108</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.525292773571887</v>
+        <v>4.648957338462038</v>
       </c>
       <c r="E19">
-        <v>28.74645389438333</v>
+        <v>55.35035216011607</v>
       </c>
       <c r="F19">
-        <v>17.06196365307111</v>
+        <v>24.50392130429013</v>
       </c>
       <c r="G19">
-        <v>3.558082929638948</v>
+        <v>1.944608169576012</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>48.71446662820038</v>
+        <v>87.94966634005524</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.54212930236887</v>
+        <v>18.85358911247519</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.048539831653814</v>
+        <v>8.530959759484782</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.557559439213458</v>
+        <v>4.756259230116033</v>
       </c>
       <c r="E20">
-        <v>29.29956709208617</v>
+        <v>56.89775689517542</v>
       </c>
       <c r="F20">
-        <v>17.08643816242983</v>
+        <v>25.30317885537213</v>
       </c>
       <c r="G20">
-        <v>3.556845370629845</v>
+        <v>1.9390997992089</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>49.57324300130869</v>
+        <v>90.1334123725547</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.51413587097255</v>
+        <v>19.51350212016469</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.160833946848149</v>
+        <v>9.102713493060499</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.663406568903989</v>
+        <v>5.131028920389983</v>
       </c>
       <c r="E21">
-        <v>31.08974088106011</v>
+        <v>62.36854791879839</v>
       </c>
       <c r="F21">
-        <v>17.18882855274881</v>
+        <v>28.10907040715417</v>
       </c>
       <c r="G21">
-        <v>3.552794397659415</v>
+        <v>1.919539264951018</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>52.35240600377331</v>
+        <v>97.67156797461439</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.43700931728903</v>
+        <v>21.84188813717726</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.234873823886492</v>
+        <v>9.469853451399244</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.730621100634569</v>
+        <v>5.395200775413887</v>
       </c>
       <c r="E22">
-        <v>32.20912678483639</v>
+        <v>66.29701840285912</v>
       </c>
       <c r="F22">
-        <v>17.27091117489746</v>
+        <v>30.08729434756757</v>
       </c>
       <c r="G22">
-        <v>3.550225924329538</v>
+        <v>1.905522661282703</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>54.08974446931409</v>
+        <v>102.8948735222644</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.3995977356637</v>
+        <v>23.49589655992117</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.19530521654373</v>
+        <v>9.274291713804102</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.694930113454535</v>
+        <v>5.251680553308581</v>
       </c>
       <c r="E23">
-        <v>31.61630241533156</v>
+        <v>64.15460837772916</v>
       </c>
       <c r="F23">
-        <v>17.22570734515022</v>
+        <v>29.01345584782427</v>
       </c>
       <c r="G23">
-        <v>3.551589578462113</v>
+        <v>1.913155737274883</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>53.16971109658362</v>
+        <v>100.0669643860019</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.41835206512246</v>
+        <v>22.59666746307233</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.046717029264325</v>
+        <v>8.521467633660448</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.555797015921911</v>
+        <v>4.750328660927862</v>
       </c>
       <c r="E24">
-        <v>29.26944994036599</v>
+        <v>56.81202941101745</v>
       </c>
       <c r="F24">
-        <v>17.0850187252606</v>
+        <v>25.25893381229487</v>
       </c>
       <c r="G24">
-        <v>3.55691292690109</v>
+        <v>1.939405434471745</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>49.52648295276219</v>
+        <v>90.01300199448647</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.51561043595065</v>
+        <v>19.47693493806126</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.889963869738946</v>
+        <v>7.791172330711496</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.397642713030805</v>
+        <v>4.245517005411389</v>
       </c>
       <c r="E25">
-        <v>26.51927964489767</v>
+        <v>49.59397329866482</v>
       </c>
       <c r="F25">
-        <v>16.99733063575851</v>
+        <v>21.53236047439015</v>
       </c>
       <c r="G25">
-        <v>3.562999140272399</v>
+        <v>1.964866125222259</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>45.25667924382275</v>
+        <v>79.64479383014087</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.67382806441247</v>
+        <v>16.41093727534029</v>
       </c>
     </row>
   </sheetData>
